--- a/Data set/Registro Evaluaciones 2018-2019 [20190903].xlsx
+++ b/Data set/Registro Evaluaciones 2018-2019 [20190903].xlsx
@@ -5172,12 +5172,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5190,15 +5217,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5241,23 +5259,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5277,12 +5280,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5305,9 +5308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5599,7 +5599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
@@ -5631,81 +5631,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
     </row>
     <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="221" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="244"/>
-      <c r="AD3" s="244"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="224" t="s">
+      <c r="A5" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="227" t="s">
         <v>5</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="241" t="s">
+      <c r="K5" s="247" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -5737,78 +5737,78 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="221" t="s">
+      <c r="AD5" s="222" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="222"/>
-      <c r="B6" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="232" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="237" t="s">
+      <c r="A6" s="223"/>
+      <c r="B6" s="236" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="246" t="s">
+      <c r="E6" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="239" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="248" t="s">
+      <c r="F6" s="245" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="239" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="248" t="s">
+      <c r="H6" s="245" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="237" t="s">
+      <c r="J6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="242"/>
-      <c r="L6" s="234" t="s">
+      <c r="K6" s="248"/>
+      <c r="L6" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="236"/>
-      <c r="R6" s="234" t="s">
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="242"/>
+      <c r="R6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="236"/>
-      <c r="X6" s="234" t="s">
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="242"/>
+      <c r="X6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="235"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
-      <c r="AC6" s="236"/>
-      <c r="AD6" s="222"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="242"/>
+      <c r="AD6" s="223"/>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="243"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="249"/>
       <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="AC7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="245"/>
+      <c r="AD7" s="224"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
@@ -8090,13 +8090,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:AD3"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L5:AC5"/>
@@ -8110,8 +8103,15 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K5:K7"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:AD3"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="H9 F9 J9 P9:Q9 T9 V9:W9 Z9 AB9:AD9 Z11:Z40 V11:W40 T11:T40 P11:Q40 J11:J40 H11:H40 F11:F40 AB11:AD40 N9:N40">
+  <conditionalFormatting sqref="F9 H9 J9 P9:Q9 T9 V9:W9 Z9 AB9:AD9 Z11:Z40 V11:W40 T11:T40 P11:Q40 J11:J40 H11:H40 F11:F40 AB11:AD40 N9:N40">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -8203,7 +8203,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
@@ -8236,81 +8236,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="221" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
     </row>
     <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="244"/>
-      <c r="AD3" s="244"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="224" t="s">
+      <c r="A5" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="227" t="s">
         <v>5</v>
       </c>
@@ -8319,7 +8319,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="241" t="s">
+      <c r="K5" s="247" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -8342,78 +8342,78 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="221" t="s">
+      <c r="AD5" s="222" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="222"/>
-      <c r="B6" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="232" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="237" t="s">
+      <c r="A6" s="223"/>
+      <c r="B6" s="236" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="256" t="s">
+      <c r="E6" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="250" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="254" t="s">
+      <c r="F6" s="251" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="252" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="254" t="s">
+      <c r="H6" s="253" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="237" t="s">
+      <c r="J6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="242"/>
-      <c r="L6" s="234" t="s">
+      <c r="K6" s="248"/>
+      <c r="L6" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="236"/>
-      <c r="R6" s="234" t="s">
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="242"/>
+      <c r="R6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="236"/>
-      <c r="X6" s="234" t="s">
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="242"/>
+      <c r="X6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="235"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
-      <c r="AC6" s="236"/>
-      <c r="AD6" s="222"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="242"/>
+      <c r="AD6" s="223"/>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="253"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="243"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="249"/>
       <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
@@ -8468,7 +8468,7 @@
       <c r="AC7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="245"/>
+      <c r="AD7" s="224"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
@@ -10576,6 +10576,10 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="E6:E7"/>
@@ -10592,10 +10596,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F18 H8:H18 J8:K8 N8:N18 P8:Q18 T8:T18 V8:W18 Z8:Z18 AB8:AD18 AB21:AD24 Z21:Z24 V21:W24 T21:T24 P21:Q24 N21:N24 J21:J24 H21:H24 F21:F24 F26:F27 H26:H27 J26:J27 N26:N27 P26:Q27 T26:T27 V26:W27 Z26:Z27 AB26:AD27 AB30:AD31 Z30:Z31 V30:W31 T30:T31 P30:Q31 N30:N31 J30:J31 H30:H31 F30:F31 F33:F37 H33:H37 J33:J37 N33:N37 P33:Q37 T33:T37 V33:W37 Z33:Z37 AB33:AD37 J9:J18 K9:K37">
     <cfRule type="colorScale" priority="51">
@@ -10868,7 +10868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
@@ -10905,81 +10905,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
     </row>
     <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="221" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="244"/>
-      <c r="AD3" s="244"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
     </row>
     <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="224" t="s">
+      <c r="A5" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
       <c r="E5" s="227" t="s">
         <v>5</v>
       </c>
@@ -10988,7 +10988,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="241" t="s">
+      <c r="K5" s="247" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -11011,65 +11011,65 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="221" t="s">
+      <c r="AD5" s="222" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="222"/>
-      <c r="B6" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="232" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="237" t="s">
+      <c r="A6" s="223"/>
+      <c r="B6" s="236" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="246" t="s">
+      <c r="E6" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="239" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="248" t="s">
+      <c r="F6" s="245" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="239" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="248" t="s">
+      <c r="H6" s="245" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="237" t="s">
+      <c r="J6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="242"/>
-      <c r="L6" s="234" t="s">
+      <c r="K6" s="248"/>
+      <c r="L6" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="236"/>
-      <c r="R6" s="234" t="s">
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="242"/>
+      <c r="R6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="236"/>
-      <c r="X6" s="234" t="s">
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="242"/>
+      <c r="X6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="235"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
-      <c r="AC6" s="236"/>
-      <c r="AD6" s="222"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="242"/>
+      <c r="AD6" s="223"/>
       <c r="AF6" s="257" t="s">
         <v>159</v>
       </c>
@@ -11081,17 +11081,17 @@
       <c r="AL6" s="257"/>
     </row>
     <row r="7" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="243"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="249"/>
       <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="AC7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="245"/>
+      <c r="AD7" s="224"/>
       <c r="AF7" s="17" t="s">
         <v>160</v>
       </c>
@@ -14109,15 +14109,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:AD3"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:K7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L5:AC5"/>
@@ -14130,6 +14121,15 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:AD3"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F12 H9:H12 J9:K12 N9:N12 P9:Q12 T9:T12 V9:W12 Z9:Z12 AB9:AD12 AB14:AD15 Z14:Z15 V14:W15 T14:T15 P14:Q15 N14:N15 J14:K15 H14:H15 F14:F15 AB18:AD27 Z18:Z27 V18:W27 T18:T27 P18:Q27 N18:N27 J18:K27 H18:H27 F18:F27 F36:F39 H36:H39 J36:K39 N36:N39 P36:Q39 T36:T39 V36:W39 Z36:Z39 AB36:AD39 AB41:AD46 Z41:Z46 V41:W46 T41:T46 P41:Q46 N41:N46 J41:K46 H41:H46 F41:F46 F30:F34 H30:H34 N30:N34 P30:Q34 T30:T34 V30:W34 Z30:Z34 AB30:AD34 J30:K34">
     <cfRule type="colorScale" priority="72">
@@ -14375,9 +14375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A43" sqref="A8:A43"/>
+      <selection pane="topRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14408,90 +14408,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="244"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="221"/>
+      <c r="AD2" s="221"/>
     </row>
     <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="244"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="244"/>
-      <c r="AD3" s="244"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="224" t="s">
+      <c r="A5" s="222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="262" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="241" t="s">
+      <c r="C5" s="234"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="263" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="265"/>
+      <c r="K5" s="247" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -14514,78 +14514,78 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="221" t="s">
+      <c r="AD5" s="222" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="222"/>
-      <c r="B6" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="232" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="237" t="s">
+      <c r="A6" s="223"/>
+      <c r="B6" s="236" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="256" t="s">
+      <c r="E6" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="239" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="248" t="s">
+      <c r="F6" s="245" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="239" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="248" t="s">
+      <c r="H6" s="245" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="237" t="s">
+      <c r="J6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="242"/>
-      <c r="L6" s="234" t="s">
+      <c r="K6" s="248"/>
+      <c r="L6" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="235"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="235"/>
-      <c r="P6" s="235"/>
-      <c r="Q6" s="236"/>
-      <c r="R6" s="234" t="s">
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="242"/>
+      <c r="R6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="235"/>
-      <c r="V6" s="235"/>
-      <c r="W6" s="236"/>
-      <c r="X6" s="234" t="s">
+      <c r="S6" s="241"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="241"/>
+      <c r="V6" s="241"/>
+      <c r="W6" s="242"/>
+      <c r="X6" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="235"/>
-      <c r="Z6" s="235"/>
-      <c r="AA6" s="235"/>
-      <c r="AB6" s="235"/>
-      <c r="AC6" s="236"/>
-      <c r="AD6" s="222"/>
+      <c r="Y6" s="241"/>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="241"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="242"/>
+      <c r="AD6" s="223"/>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="222"/>
-      <c r="B7" s="258"/>
-      <c r="C7" s="259"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="243"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="249"/>
       <c r="L7" s="100" t="s">
         <v>13</v>
       </c>
@@ -14640,7 +14640,7 @@
       <c r="AC7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="266"/>
+      <c r="AD7" s="258"/>
     </row>
     <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="79" t="s">
@@ -17274,6 +17274,9 @@
       <c r="A48" t="s">
         <v>414</v>
       </c>
+      <c r="F48" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="80" t="s">
@@ -17622,6 +17625,9 @@
       <c r="A53" t="s">
         <v>415</v>
       </c>
+      <c r="F53" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="80" t="s">
@@ -17915,6 +17921,9 @@
       <c r="A58" t="s">
         <v>416</v>
       </c>
+      <c r="F58" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="80" t="s">
@@ -18065,6 +18074,9 @@
     <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>417</v>
+      </c>
+      <c r="F61" s="58">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.3">
@@ -18288,6 +18300,10 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:AD3"/>
@@ -18304,13 +18320,9 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="E5:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:Q16 F8:F16 H8:H16 J8:K8 N8:N16 T8:T16 V8:W16 Z8:Z16 AB8:AD16 AB18:AD21 Z18:Z21 V18:W21 T18:T21 N18:N21 J18:J21 H18:H21 F18:F21 P18:Q21 P25:Q27 F25:F27 H25:H27 J25:J27 N25:N27 T25:T27 V25:W27 Z25:Z27 AB25:AD27 AB29:AD32 Z29:Z32 V29:W32 T29:T32 N29:N32 J29:J32 H29:H32 F29:F32 P29:Q32 P35:Q43 F35:F43 H35:H43 J35:J43 N35:N43 T35:T43 V35:W43 Z35:Z43 AB35:AD43 J9:J16 K9:K21 K23:K43 P23:Q23 F23 H23 J23 N23 T23 V23:W23 Z23 AB23:AD23">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18322,7 +18334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:D16 B18:D21 B25:D25 B26:C43 D26:D42 B23:D23">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18334,7 +18346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:Q17 F17 H17 J17 N17 T17 V17:W17 Z17 AB17:AD17">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18346,7 +18358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D17">
-    <cfRule type="colorScale" priority="83">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18358,7 +18370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AD24 Z24 V24:W24 T24 N24 J24 H24 F24 P24:Q24">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18370,7 +18382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18382,7 +18394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28 F28 H28 J28 N28 T28 V28:W28 Z28 AB28:AD28">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18394,7 +18406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L21 L23:L43">
-    <cfRule type="iconSet" priority="589">
+    <cfRule type="iconSet" priority="593">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18403,7 +18415,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33:AD33 Z33 V33:W33 T33 N33 J33 H33 F33 P33:Q33">
-    <cfRule type="colorScale" priority="75">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18415,6 +18427,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:Q34 F34 H34 J34 N34 T34 V34:W34 Z34 AB34:AD34">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI22:AJ22">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22:AD22 Z22 V22:W22 T22 N22 J22:K22 H22 F22 P22:Q22">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18426,7 +18471,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AJ22">
+  <conditionalFormatting sqref="B22:D22">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI46:AJ46">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18438,16 +18495,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
+  <conditionalFormatting sqref="B46:D46">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AD22 Z22 V22:W22 T22 N22 J22:K22 H22 F22 P22:Q22">
+  <conditionalFormatting sqref="AB46:AD46 Z46 V46:W46 T46 N46 J46:K46 H46 F46 P46:Q46">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18459,56 +18519,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI46:AJ46">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:D46">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB46:AD46 Z46 V46:W46 T46 N46 J46:K46 H46 F46 P46:Q46">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="69">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18516,8 +18528,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47 J47 P47:Q47 T47 V47:W47 Z47 AB47:AD47 N47">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="H47 F47 J47 P47:Q47 T47 V47:W47 Z47 AB47:AD47 N47">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18529,7 +18541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:D47">
-    <cfRule type="colorScale" priority="61">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18541,7 +18553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18553,7 +18565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18562,6 +18574,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI49:AJ49">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB49:AD49 Z49 V49:W49 T49 N49 J49:K49 H49 F49 P49:Q49">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:D49">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI50:AJ50">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18573,7 +18630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
+  <conditionalFormatting sqref="L50">
     <cfRule type="iconSet" priority="57">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -18582,7 +18639,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB49:AD49 Z49 V49:W49 T49 N49 J49:K49 H49 F49 P49:Q49">
+  <conditionalFormatting sqref="P50:Q50 F50 H50 J50:K50 N50 T50 V50:W50 Z50 AB50:AD50">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18594,7 +18651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:D49">
+  <conditionalFormatting sqref="B50:D50">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18606,7 +18663,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI50:AJ50">
+  <conditionalFormatting sqref="AI51:AJ51">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18618,7 +18675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
+  <conditionalFormatting sqref="L51">
     <cfRule type="iconSet" priority="53">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -18627,7 +18684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50 F50 H50 J50:K50 N50 T50 V50:W50 Z50 AB50:AD50">
+  <conditionalFormatting sqref="AB51:AD51 Z51 V51:W51 T51 N51 J51:K51 H51 F51 P51:Q51">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18639,7 +18696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:D50">
+  <conditionalFormatting sqref="B51:D51">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18651,11 +18708,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI51:AJ51">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="K52">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -18663,8 +18720,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="iconSet" priority="49">
+  <conditionalFormatting sqref="L52">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18672,7 +18729,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AD51 Z51 V51:W51 T51 N51 J51:K51 H51 F51 P51:Q51">
+  <conditionalFormatting sqref="AB52:AD52 Z52 V52:W52 T52 N52 J52 H52 F52 P52:Q52">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18684,7 +18741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:D51">
+  <conditionalFormatting sqref="B52:C52">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18696,8 +18753,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="D52">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI54:AJ54">
     <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18708,40 +18798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB52:AD52 Z52 V52:W52 T52 N52 J52 H52 F52 P52:Q52">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:C52">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
+  <conditionalFormatting sqref="B54:D54">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18753,29 +18810,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI54:AJ54">
+  <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
     <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
-    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18787,7 +18823,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:D54">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18798,7 +18834,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
+  <conditionalFormatting sqref="K55">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55:Q55 F55 H55 J55 N55 T55 V55:W55 Z55 AB55:AD55">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18810,7 +18867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:D54">
+  <conditionalFormatting sqref="B55:C55">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18822,8 +18879,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="D55">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI56:AJ56">
     <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56:Q56 F56 H56 J56:K56 N56 T56 V56:W56 Z56 AB56:AD56">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18834,40 +18924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L55">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P55:Q55 F55 H55 J55 N55 T55 V55:W55 Z55 AB55:AD55">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:C55">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="B56:D56">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18879,8 +18936,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI56:AJ56">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="H57 F57 N57 P57:Q57 T57 V57:W57 Z57 AB57:AD57 J57:K57">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:C57">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18891,8 +18960,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="iconSet" priority="29">
+  <conditionalFormatting sqref="L57">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18900,19 +18969,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P56:Q56 F56 H56 J56:K56 N56 T56 V56:W56 Z56 AB56:AD56">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:D56">
+  <conditionalFormatting sqref="D57">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18924,8 +18981,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57 H57 N57 P57:Q57 T57 V57:W57 Z57 AB57:AD57 J57:K57">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="AB59:AD59 Z59 V59:W59 T59 P59:Q59 N59 J59:K59 H59 F59">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18936,8 +18993,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:C57">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="B59:D59 AF59:AL59">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18948,8 +19005,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="iconSet" priority="26">
+  <conditionalFormatting sqref="L59">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18957,19 +19014,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB59:AD59 Z59 V59:W59 T59 P59:Q59 N59 J59:K59 H59 F59">
+  <conditionalFormatting sqref="K60">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18981,8 +19026,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:D59 AF59:AL59">
+  <conditionalFormatting sqref="L60">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P60:Q60 F60 H60 J60 N60 T60 V60:W60 Z60 AB60:AD60">
     <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:C60">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18993,20 +19059,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="D60">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -19014,16 +19071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P60:Q60 F60 H60 J60 N60 T60 V60:W60 Z60 AB60:AD60">
+  <conditionalFormatting sqref="K62">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19035,11 +19083,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:C60">
+  <conditionalFormatting sqref="L62">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P62:Q62 F62 H62 J62 N62 T62 V62:W62 Z62 AB62:AD62">
     <cfRule type="colorScale" priority="16">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -19047,7 +19104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="B62:C62">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -19059,7 +19116,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62">
+  <conditionalFormatting sqref="D62">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V63:W63 Z63 T63 P63:Q63 J63 H63 F63 AB63:AD63 N63">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19071,65 +19140,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L62">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P62:Q62 F62 H62 J62 N62 T62 V62:W62 Z62 AB62:AD62">
+  <conditionalFormatting sqref="B63:D63">
     <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C62">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V63:W63 Z63 T63 P63:Q63 J63 H63 F63 AB63:AD63 N63">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:D63">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -19141,7 +19153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -19153,7 +19165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="iconSet" priority="7">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19162,6 +19174,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB64:AD64 Z64 V64:W64 T64 N64 J64 H64 F64 P64:Q64">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:C64">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19173,16 +19242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB64:AD64 Z64 V64:W64 T64 N64 J64 H64 F64 P64:Q64">
+  <conditionalFormatting sqref="F58">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19194,11 +19254,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:C64">
+  <conditionalFormatting sqref="F53">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -19206,11 +19266,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="F48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>

--- a/Data set/Registro Evaluaciones 2018-2019 [20190903].xlsx
+++ b/Data set/Registro Evaluaciones 2018-2019 [20190903].xlsx
@@ -1172,30 +1172,6 @@
     <author>Jean</author>
   </authors>
   <commentList>
-    <comment ref="G13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1231,78 +1207,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Convalidado</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="N20" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1327,30 +1231,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="N24" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1372,54 +1252,6 @@
           </rPr>
           <t xml:space="preserve">
 Timeout (Full2)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
         </r>
       </text>
     </comment>
@@ -1495,103 +1327,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G51" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H51" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Convalidado
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G55" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G62" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Timeout</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I62" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1640,7 +1375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="430">
   <si>
     <t>Nombre</t>
   </si>
@@ -2543,30 +2278,6 @@
     <t>27/35 (77.14%)</t>
   </si>
   <si>
-    <t>08/35 (22.86%)</t>
-  </si>
-  <si>
-    <t>12/35 (34.29%)</t>
-  </si>
-  <si>
-    <t>07/35 (20.00%)</t>
-  </si>
-  <si>
-    <t>20/35 (57.14%)</t>
-  </si>
-  <si>
-    <t>35/35 (100.00%)</t>
-  </si>
-  <si>
-    <t>05/35 (14.29%)</t>
-  </si>
-  <si>
-    <t>21/35 (60.00%)</t>
-  </si>
-  <si>
-    <t>15/35 (42.86%)</t>
-  </si>
-  <si>
     <t>Herencia y Polimorfismo</t>
   </si>
   <si>
@@ -3078,6 +2789,63 @@
   </si>
   <si>
     <t>C122 - Yarien Iglesias Herrera</t>
+  </si>
+  <si>
+    <t>Tester Jean (%)</t>
+  </si>
+  <si>
+    <t>Tester mío (%)</t>
+  </si>
+  <si>
+    <t>250/386 (64.77%)</t>
+  </si>
+  <si>
+    <t>386/386 (100.00%)</t>
+  </si>
+  <si>
+    <t>002/386 (00.52%)</t>
+  </si>
+  <si>
+    <t>000/386 (00.00%)</t>
+  </si>
+  <si>
+    <t>173/386 (44.82%)</t>
+  </si>
+  <si>
+    <t>169/386 (43.78%)</t>
+  </si>
+  <si>
+    <t>168/386 (43.52%)</t>
+  </si>
+  <si>
+    <t>384/386 (99.48%)</t>
+  </si>
+  <si>
+    <t>205/386 (53.11%)</t>
+  </si>
+  <si>
+    <t>194/386 (50.26%)</t>
+  </si>
+  <si>
+    <t>193/386 (50.00%)</t>
+  </si>
+  <si>
+    <t>207/386 (53.63%)</t>
+  </si>
+  <si>
+    <t>171/386 (44.30%)</t>
+  </si>
+  <si>
+    <t>001/386 (00.26%)</t>
+  </si>
+  <si>
+    <t>319/386 (82.64%)</t>
+  </si>
+  <si>
+    <t>219/386 (56.74%)</t>
+  </si>
+  <si>
+    <t>039/386 (10.10%)</t>
   </si>
 </sst>
 </file>
@@ -5172,15 +4940,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5190,73 +5021,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5268,21 +5048,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5292,9 +5066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5305,9 +5076,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5631,81 +5399,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="221"/>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="221"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="221"/>
-      <c r="AD3" s="221"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="233" t="s">
+      <c r="A5" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="227" t="s">
         <v>5</v>
       </c>
@@ -5714,7 +5482,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="247" t="s">
+      <c r="K5" s="241" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -5737,78 +5505,78 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="222" t="s">
+      <c r="AD5" s="221" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="223"/>
-      <c r="B6" s="236" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="238" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="243" t="s">
+      <c r="A6" s="222"/>
+      <c r="B6" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="245" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="230" t="s">
+      <c r="F6" s="239" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="245" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="230" t="s">
+      <c r="H6" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="243" t="s">
+      <c r="J6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="248"/>
-      <c r="L6" s="240" t="s">
+      <c r="K6" s="242"/>
+      <c r="L6" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="240" t="s">
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="236"/>
+      <c r="R6" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="242"/>
-      <c r="X6" s="240" t="s">
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="236"/>
+      <c r="X6" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="242"/>
-      <c r="AD6" s="223"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
+      <c r="AD6" s="222"/>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="232"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="249"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="243"/>
       <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
@@ -5863,7 +5631,7 @@
       <c r="AC7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="224"/>
+      <c r="AD7" s="245"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="79" t="s">
@@ -5891,7 +5659,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="125" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J8" s="12">
         <v>2</v>
@@ -6007,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J10" s="18">
         <v>2</v>
@@ -6020,13 +5788,13 @@
         <v>2</v>
       </c>
       <c r="M10" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N10" s="62">
         <v>5</v>
       </c>
       <c r="O10" s="185" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P10" s="18">
         <v>2</v>
@@ -6036,11 +5804,11 @@
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V10" s="18">
         <v>2</v>
@@ -6083,7 +5851,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J11" s="18">
         <v>2</v>
@@ -6096,13 +5864,13 @@
         <v>2</v>
       </c>
       <c r="M11" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N11" s="62">
         <v>4</v>
       </c>
       <c r="O11" s="185" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P11" s="16">
         <v>4</v>
@@ -6153,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J12" s="18">
         <v>2</v>
@@ -6213,7 +5981,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J13" s="18">
         <v>2</v>
@@ -6226,13 +5994,13 @@
         <v>3</v>
       </c>
       <c r="M13" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N13" s="62">
         <v>5</v>
       </c>
       <c r="O13" s="185" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P13" s="16">
         <v>4</v>
@@ -6283,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J14" s="18">
         <v>4</v>
@@ -6296,13 +6064,13 @@
         <v>4</v>
       </c>
       <c r="M14" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N14" s="62">
         <v>5</v>
       </c>
       <c r="O14" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P14" s="16">
         <v>3</v>
@@ -6353,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J15" s="18">
         <v>3.25</v>
@@ -6366,13 +6134,13 @@
         <v>2</v>
       </c>
       <c r="M15" s="185" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N15" s="62">
         <v>2</v>
       </c>
       <c r="O15" s="185" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P15" s="16">
         <v>3</v>
@@ -6382,11 +6150,11 @@
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="185" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="185" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="V15" s="18"/>
       <c r="W15" s="15">
@@ -6429,7 +6197,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
@@ -6441,13 +6209,13 @@
         <v>2</v>
       </c>
       <c r="M16" s="185" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N16" s="62">
         <v>4</v>
       </c>
       <c r="O16" s="185" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P16" s="16">
         <v>2</v>
@@ -6457,11 +6225,11 @@
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="185" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="15">
@@ -6502,7 +6270,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
@@ -6514,13 +6282,13 @@
         <v>2</v>
       </c>
       <c r="M17" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N17" s="62">
         <v>5</v>
       </c>
       <c r="O17" s="185" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P17" s="16">
         <v>3</v>
@@ -6570,7 +6338,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J18" s="18">
         <v>2</v>
@@ -6591,11 +6359,11 @@
         <v>14.5</v>
       </c>
       <c r="S18" s="185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="T18" s="14"/>
       <c r="U18" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V18" s="18"/>
       <c r="W18" s="15">
@@ -6605,13 +6373,13 @@
         <v>15</v>
       </c>
       <c r="Y18" s="78" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Z18" s="14">
         <v>4.75</v>
       </c>
       <c r="AA18" s="185" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AB18" s="18">
         <v>5</v>
@@ -6699,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J20" s="18">
         <v>2</v>
@@ -6763,7 +6531,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J21" s="18">
         <v>2</v>
@@ -6827,7 +6595,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -6847,11 +6615,11 @@
         <v>13</v>
       </c>
       <c r="S22" s="185" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="185" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="V22" s="18"/>
       <c r="W22" s="15">
@@ -6894,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -6907,13 +6675,13 @@
         <v>2</v>
       </c>
       <c r="M23" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N23" s="62">
         <v>5</v>
       </c>
       <c r="O23" s="185" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P23" s="16">
         <v>3</v>
@@ -7058,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J26" s="18">
         <v>2</v>
@@ -7076,14 +6844,14 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="186" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="S26" s="185" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="T26" s="14"/>
       <c r="U26" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V26" s="18"/>
       <c r="W26" s="15">
@@ -7093,7 +6861,7 @@
         <v>9.5</v>
       </c>
       <c r="Y26" s="78" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="Z26" s="14">
         <v>2</v>
@@ -7138,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="72" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J27" s="18">
         <v>2</v>
@@ -7159,11 +6927,11 @@
         <v>12</v>
       </c>
       <c r="S27" s="185" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="T27" s="14"/>
       <c r="U27" s="185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="V27" s="18"/>
       <c r="W27" s="15">
@@ -7173,13 +6941,13 @@
         <v>18.5</v>
       </c>
       <c r="Y27" s="78" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Z27" s="14">
         <v>3</v>
       </c>
       <c r="AA27" s="185" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AB27" s="18">
         <v>5</v>
@@ -7218,7 +6986,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="72" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J28" s="18">
         <v>4</v>
@@ -7334,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J30" s="18">
         <v>2</v>
@@ -7355,11 +7123,11 @@
         <v>17</v>
       </c>
       <c r="S30" s="185" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="15">
@@ -7369,13 +7137,13 @@
         <v>14.5</v>
       </c>
       <c r="Y30" s="78" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Z30" s="14">
         <v>2</v>
       </c>
       <c r="AA30" s="185" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AB30" s="18">
         <v>5</v>
@@ -7414,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J31" s="18">
         <v>2</v>
@@ -7431,7 +7199,7 @@
       <c r="P31" s="16"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="186" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="S31" s="40"/>
       <c r="T31" s="14"/>
@@ -7475,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J32" s="18">
         <v>2</v>
@@ -7493,14 +7261,14 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="186" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="S32" s="185" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="T32" s="14"/>
       <c r="U32" s="185" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="V32" s="18"/>
       <c r="W32" s="15">
@@ -7510,13 +7278,13 @@
         <v>15.5</v>
       </c>
       <c r="Y32" s="78" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Z32" s="14">
         <v>2.5</v>
       </c>
       <c r="AA32" s="185" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AB32" s="18">
         <v>2</v>
@@ -7531,7 +7299,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="80" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B33" s="123"/>
       <c r="C33" s="17">
@@ -7539,7 +7307,7 @@
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="33" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F33" s="14">
         <v>2</v>
@@ -7547,7 +7315,7 @@
       <c r="G33" s="60"/>
       <c r="H33" s="14"/>
       <c r="I33" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J33" s="18">
         <v>2</v>
@@ -7655,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J35" s="18">
         <v>2</v>
@@ -7719,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="72" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J36" s="18">
         <v>2</v>
@@ -7783,7 +7551,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J37" s="18">
         <v>5</v>
@@ -7800,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="O37" s="185" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P37" s="16">
         <v>2</v>
@@ -7899,7 +7667,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J39" s="18">
         <v>2</v>
@@ -7941,7 +7709,7 @@
     </row>
     <row r="40" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="81" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="17"/>
@@ -7951,7 +7719,7 @@
       <c r="G40" s="178"/>
       <c r="H40" s="14"/>
       <c r="I40" s="76" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J40" s="18">
         <v>2</v>
@@ -8090,6 +7858,13 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:AD3"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L5:AC5"/>
@@ -8103,15 +7878,8 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K5:K7"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:AD3"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F9 H9 J9 P9:Q9 T9 V9:W9 Z9 AB9:AD9 Z11:Z40 V11:W40 T11:T40 P11:Q40 J11:J40 H11:H40 F11:F40 AB11:AD40 N9:N40">
+  <conditionalFormatting sqref="H9 F9 J9 P9:Q9 T9 V9:W9 Z9 AB9:AD9 Z11:Z40 V11:W40 T11:T40 P11:Q40 J11:J40 H11:H40 F11:F40 AB11:AD40 N9:N40">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -8236,81 +8004,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="221"/>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="221"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="221"/>
-      <c r="AD3" s="221"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="233" t="s">
+      <c r="A5" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="227" t="s">
         <v>5</v>
       </c>
@@ -8319,7 +8087,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="247" t="s">
+      <c r="K5" s="241" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -8342,78 +8110,78 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="222" t="s">
+      <c r="AD5" s="221" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="223"/>
-      <c r="B6" s="236" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="238" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="243" t="s">
+      <c r="A6" s="222"/>
+      <c r="B6" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="250" t="s">
+      <c r="E6" s="254" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="251" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="255" t="s">
+      <c r="F6" s="255" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="253" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="255" t="s">
+      <c r="H6" s="250" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="243" t="s">
+      <c r="J6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="248"/>
-      <c r="L6" s="240" t="s">
+      <c r="K6" s="242"/>
+      <c r="L6" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="240" t="s">
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="236"/>
+      <c r="R6" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="242"/>
-      <c r="X6" s="240" t="s">
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="236"/>
+      <c r="X6" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="242"/>
-      <c r="AD6" s="223"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
+      <c r="AD6" s="222"/>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="232"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="249"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="243"/>
       <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
@@ -8468,7 +8236,7 @@
       <c r="AC7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="224"/>
+      <c r="AD7" s="245"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
@@ -8496,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="125" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J8" s="18">
         <v>5</v>
@@ -8509,13 +8277,13 @@
         <v>2</v>
       </c>
       <c r="M8" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N8" s="62">
         <v>5</v>
       </c>
       <c r="O8" s="185" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P8" s="66">
         <v>4</v>
@@ -8566,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J9" s="18">
         <v>2.75</v>
@@ -8579,13 +8347,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N9" s="62">
         <v>5</v>
       </c>
       <c r="O9" s="185" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P9" s="66">
         <v>2</v>
@@ -8636,7 +8404,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J10" s="18">
         <v>4</v>
@@ -8649,13 +8417,13 @@
         <v>3</v>
       </c>
       <c r="M10" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N10" s="62">
         <v>5</v>
       </c>
       <c r="O10" s="185" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P10" s="66">
         <v>4</v>
@@ -8706,7 +8474,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J11" s="59">
         <v>2</v>
@@ -8727,11 +8495,11 @@
         <v>11.5</v>
       </c>
       <c r="S11" s="185" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="T11" s="92"/>
       <c r="U11" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V11" s="97"/>
       <c r="W11" s="90">
@@ -8774,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J12" s="18">
         <v>2</v>
@@ -8792,14 +8560,14 @@
       <c r="P12" s="66"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="187" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="S12" s="185" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="T12" s="62"/>
       <c r="U12" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="28">
@@ -8809,13 +8577,13 @@
         <v>14.5</v>
       </c>
       <c r="Y12" s="78" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Z12" s="14">
         <v>2</v>
       </c>
       <c r="AA12" s="185" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AB12" s="18">
         <v>2</v>
@@ -8862,13 +8630,13 @@
         <v>2</v>
       </c>
       <c r="M13" s="185" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N13" s="62">
         <v>2</v>
       </c>
       <c r="O13" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P13" s="66">
         <v>3</v>
@@ -8878,11 +8646,11 @@
       </c>
       <c r="R13" s="190"/>
       <c r="S13" s="185" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="T13" s="62"/>
       <c r="U13" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="28">
@@ -8892,13 +8660,13 @@
         <v>18</v>
       </c>
       <c r="Y13" s="78" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Z13" s="14">
         <v>2</v>
       </c>
       <c r="AA13" s="185" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AB13" s="18">
         <v>2</v>
@@ -8937,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J14" s="18">
         <v>2</v>
@@ -9055,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
@@ -9121,7 +8889,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
@@ -9133,13 +8901,13 @@
         <v>2</v>
       </c>
       <c r="M17" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N17" s="62">
         <v>4</v>
       </c>
       <c r="O17" s="185" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P17" s="66">
         <v>2</v>
@@ -9149,11 +8917,11 @@
       </c>
       <c r="R17" s="14"/>
       <c r="S17" s="185" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="T17" s="62"/>
       <c r="U17" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="28">
@@ -9250,7 +9018,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J19" s="18">
         <v>2</v>
@@ -9264,7 +9032,7 @@
       <c r="M19" s="34"/>
       <c r="N19" s="62"/>
       <c r="O19" s="185" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P19" s="18">
         <v>2</v>
@@ -9274,11 +9042,11 @@
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="185" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="T19" s="14"/>
       <c r="U19" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V19" s="18"/>
       <c r="W19" s="15">
@@ -9288,13 +9056,13 @@
         <v>9</v>
       </c>
       <c r="Y19" s="78" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Z19" s="14">
         <v>5</v>
       </c>
       <c r="AA19" s="185" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AB19" s="18">
         <v>4</v>
@@ -9333,7 +9101,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J20" s="18">
         <v>2</v>
@@ -9346,13 +9114,13 @@
         <v>2</v>
       </c>
       <c r="M20" s="185" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N20" s="62">
         <v>2</v>
       </c>
       <c r="O20" s="185" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P20" s="18">
         <v>4</v>
@@ -9362,11 +9130,11 @@
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="185" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="185" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="V20" s="18"/>
       <c r="W20" s="15">
@@ -9409,7 +9177,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J21" s="18">
         <v>2</v>
@@ -9582,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="72" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J24" s="18">
         <v>2</v>
@@ -9603,11 +9371,11 @@
         <v>12</v>
       </c>
       <c r="S24" s="185" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="T24" s="62"/>
       <c r="U24" s="185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="28">
@@ -9617,13 +9385,13 @@
         <v>9</v>
       </c>
       <c r="Y24" s="78" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Z24" s="14">
         <v>2</v>
       </c>
       <c r="AA24" s="185" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AB24" s="18">
         <v>2</v>
@@ -9662,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J25" s="18">
         <v>2</v>
@@ -9726,7 +9494,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="72" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J26" s="18">
         <v>2</v>
@@ -9792,7 +9560,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="72" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J27" s="18">
         <v>2</v>
@@ -9851,7 +9619,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J28" s="18">
         <v>2</v>
@@ -9915,7 +9683,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J29" s="18">
         <v>4.25</v>
@@ -9928,13 +9696,13 @@
         <v>4</v>
       </c>
       <c r="M29" s="185" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N29" s="62">
         <v>4</v>
       </c>
       <c r="O29" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P29" s="18">
         <v>3</v>
@@ -9985,7 +9753,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J30" s="18">
         <v>2</v>
@@ -9998,13 +9766,13 @@
         <v>3</v>
       </c>
       <c r="M30" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N30" s="62">
         <v>5</v>
       </c>
       <c r="O30" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P30" s="66">
         <v>5</v>
@@ -10109,7 +9877,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J32" s="18">
         <v>2</v>
@@ -10123,7 +9891,7 @@
       <c r="M32" s="34"/>
       <c r="N32" s="62"/>
       <c r="O32" s="185" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P32" s="18">
         <v>2</v>
@@ -10135,11 +9903,11 @@
         <v>8.5</v>
       </c>
       <c r="S32" s="185" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="T32" s="14"/>
       <c r="U32" s="185" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="V32" s="18"/>
       <c r="W32" s="15">
@@ -10149,13 +9917,13 @@
         <v>11</v>
       </c>
       <c r="Y32" s="78" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Z32" s="14">
         <v>2.75</v>
       </c>
       <c r="AA32" s="185" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AB32" s="18">
         <v>2.5</v>
@@ -10194,7 +9962,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J33" s="18">
         <v>2</v>
@@ -10256,7 +10024,7 @@
         <v>2.75</v>
       </c>
       <c r="I34" s="72" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J34" s="18">
         <v>2</v>
@@ -10268,13 +10036,13 @@
         <v>2</v>
       </c>
       <c r="M34" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N34" s="62">
         <v>4</v>
       </c>
       <c r="O34" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P34" s="66">
         <v>3</v>
@@ -10284,11 +10052,11 @@
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="T34" s="62"/>
       <c r="U34" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V34" s="15"/>
       <c r="W34" s="28">
@@ -10439,7 +10207,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="76" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J37" s="18">
         <v>2</v>
@@ -10576,11 +10344,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:K7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E5:J5"/>
@@ -10596,6 +10359,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F18 H8:H18 J8:K8 N8:N18 P8:Q18 T8:T18 V8:W18 Z8:Z18 AB8:AD18 AB21:AD24 Z21:Z24 V21:W24 T21:T24 P21:Q24 N21:N24 J21:J24 H21:H24 F21:F24 F26:F27 H26:H27 J26:J27 N26:N27 P26:Q27 T26:T27 V26:W27 Z26:Z27 AB26:AD27 AB30:AD31 Z30:Z31 V30:W31 T30:T31 P30:Q31 N30:N31 J30:J31 H30:H31 F30:F31 F33:F37 H33:H37 J33:J37 N33:N37 P33:Q37 T33:T37 V33:W37 Z33:Z37 AB33:AD37 J9:J18 K9:K37">
     <cfRule type="colorScale" priority="51">
@@ -10905,81 +10673,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="221"/>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="221"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="221"/>
-      <c r="AD3" s="221"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="233" t="s">
+      <c r="A5" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="227" t="s">
         <v>5</v>
       </c>
@@ -10988,7 +10756,7 @@
       <c r="H5" s="228"/>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="247" t="s">
+      <c r="K5" s="241" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -11011,65 +10779,65 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="222" t="s">
+      <c r="AD5" s="221" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="223"/>
-      <c r="B6" s="236" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="238" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="243" t="s">
+      <c r="A6" s="222"/>
+      <c r="B6" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="245" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="230" t="s">
+      <c r="F6" s="239" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="245" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="230" t="s">
+      <c r="H6" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="243" t="s">
+      <c r="J6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="248"/>
-      <c r="L6" s="240" t="s">
+      <c r="K6" s="242"/>
+      <c r="L6" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="240" t="s">
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="236"/>
+      <c r="R6" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="242"/>
-      <c r="X6" s="240" t="s">
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="236"/>
+      <c r="X6" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="242"/>
-      <c r="AD6" s="223"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
+      <c r="AD6" s="222"/>
       <c r="AF6" s="257" t="s">
         <v>159</v>
       </c>
@@ -11081,17 +10849,17 @@
       <c r="AL6" s="257"/>
     </row>
     <row r="7" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="232"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="231"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="249"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="249"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="243"/>
       <c r="L7" s="47" t="s">
         <v>13</v>
       </c>
@@ -11146,7 +10914,7 @@
       <c r="AC7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="224"/>
+      <c r="AD7" s="245"/>
       <c r="AF7" s="17" t="s">
         <v>160</v>
       </c>
@@ -11157,10 +10925,10 @@
         <v>203</v>
       </c>
       <c r="AI7" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AJ7" s="17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AK7" s="17"/>
       <c r="AL7" s="17"/>
@@ -11191,7 +10959,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="125" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J8" s="10">
         <v>2</v>
@@ -11221,7 +10989,7 @@
         <v>15</v>
       </c>
       <c r="Y8" s="219" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Z8" s="9">
         <v>2</v>
@@ -11275,7 +11043,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J9" s="97">
         <v>4</v>
@@ -11288,13 +11056,13 @@
         <v>4</v>
       </c>
       <c r="M9" s="185" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N9" s="92">
         <v>2</v>
       </c>
       <c r="O9" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P9" s="88">
         <v>5</v>
@@ -11304,7 +11072,7 @@
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="185" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="T9" s="58"/>
       <c r="U9" s="98"/>
@@ -11356,7 +11124,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J10" s="15">
         <v>2</v>
@@ -11369,13 +11137,13 @@
         <v>2</v>
       </c>
       <c r="M10" s="185" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="N10" s="62">
         <v>2.75</v>
       </c>
       <c r="O10" s="185" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P10" s="16">
         <v>4</v>
@@ -11551,7 +11319,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J13" s="15">
         <v>2</v>
@@ -11571,11 +11339,11 @@
         <v>13.5</v>
       </c>
       <c r="S13" s="185" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="T13" s="14"/>
       <c r="U13" s="185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="V13" s="18"/>
       <c r="W13" s="15">
@@ -11585,13 +11353,13 @@
         <v>10.5</v>
       </c>
       <c r="Y13" s="78" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Z13" s="14">
         <v>5</v>
       </c>
       <c r="AA13" s="185" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AB13" s="18">
         <v>4</v>
@@ -11639,7 +11407,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J14" s="15">
         <v>2</v>
@@ -11771,7 +11539,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J16" s="15">
         <v>2</v>
@@ -11792,11 +11560,11 @@
         <v>17</v>
       </c>
       <c r="S16" s="185" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="T16" s="14"/>
       <c r="U16" s="185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="V16" s="18"/>
       <c r="W16" s="15">
@@ -11806,13 +11574,13 @@
         <v>17</v>
       </c>
       <c r="Y16" s="78" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Z16" s="14">
         <v>3.75</v>
       </c>
       <c r="AA16" s="185" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="AB16" s="18">
         <v>2.25</v>
@@ -11862,7 +11630,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J17" s="15">
         <v>2</v>
@@ -11875,13 +11643,13 @@
         <v>3</v>
       </c>
       <c r="M17" s="185" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N17" s="62">
         <v>4</v>
       </c>
       <c r="O17" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P17" s="18">
         <v>3</v>
@@ -11943,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J18" s="15">
         <v>2</v>
@@ -11956,13 +11724,13 @@
         <v>2</v>
       </c>
       <c r="M18" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N18" s="62">
         <v>5</v>
       </c>
       <c r="O18" s="185" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P18" s="16">
         <v>4</v>
@@ -12075,7 +11843,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>188</v>
@@ -12090,7 +11858,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J20" s="15">
         <v>2</v>
@@ -12121,13 +11889,13 @@
         <v>8.5</v>
       </c>
       <c r="Y20" s="78" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Z20" s="14">
         <v>2</v>
       </c>
       <c r="AA20" s="185" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AB20" s="18">
         <v>2</v>
@@ -12179,7 +11947,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J21" s="15">
         <v>2</v>
@@ -12200,11 +11968,11 @@
         <v>14</v>
       </c>
       <c r="S21" s="185" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V21" s="18"/>
       <c r="W21" s="15">
@@ -12214,13 +11982,13 @@
         <v>18.5</v>
       </c>
       <c r="Y21" s="78" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Z21" s="14">
         <v>2</v>
       </c>
       <c r="AA21" s="185" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AB21" s="18">
         <v>2</v>
@@ -12276,7 +12044,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J22" s="15">
         <v>2</v>
@@ -12463,7 +12231,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J25" s="15">
         <v>3</v>
@@ -12476,13 +12244,13 @@
         <v>4</v>
       </c>
       <c r="M25" s="185" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N25" s="62">
         <v>2</v>
       </c>
       <c r="O25" s="185" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P25" s="16">
         <v>3</v>
@@ -12725,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J29" s="15">
         <v>2</v>
@@ -12796,7 +12564,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J30" s="15">
         <v>4</v>
@@ -12875,7 +12643,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="J31" s="15">
         <v>2</v>
@@ -12888,13 +12656,13 @@
         <v>2</v>
       </c>
       <c r="M31" s="185" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="N31" s="62">
         <v>2</v>
       </c>
       <c r="O31" s="185" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P31" s="16">
         <v>3</v>
@@ -12904,11 +12672,11 @@
       </c>
       <c r="R31" s="13"/>
       <c r="S31" s="185" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="T31" s="14"/>
       <c r="U31" s="185" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="V31" s="18"/>
       <c r="W31" s="15">
@@ -12968,7 +12736,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J32" s="15">
         <v>2</v>
@@ -13047,7 +12815,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J33" s="15">
         <v>4</v>
@@ -13060,13 +12828,13 @@
         <v>2</v>
       </c>
       <c r="M33" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N33" s="62">
         <v>4</v>
       </c>
       <c r="O33" s="185" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P33" s="16">
         <v>4</v>
@@ -13132,7 +12900,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="72" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J34" s="15">
         <v>3</v>
@@ -13145,13 +12913,13 @@
         <v>4</v>
       </c>
       <c r="M34" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N34" s="62">
         <v>5</v>
       </c>
       <c r="O34" s="185" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P34" s="16">
         <v>3</v>
@@ -13209,7 +12977,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J35" s="15">
         <v>2</v>
@@ -13402,7 +13170,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="72" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J38" s="15">
         <v>2</v>
@@ -13481,7 +13249,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="J39" s="15">
         <v>2</v>
@@ -13501,11 +13269,11 @@
         <v>15</v>
       </c>
       <c r="S39" s="185" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="T39" s="14"/>
       <c r="U39" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V39" s="18"/>
       <c r="W39" s="15">
@@ -13620,7 +13388,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J41" s="15">
         <v>2</v>
@@ -13634,7 +13402,7 @@
       <c r="M41" s="34"/>
       <c r="N41" s="62"/>
       <c r="O41" s="185" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P41" s="16">
         <v>2</v>
@@ -13644,11 +13412,11 @@
       </c>
       <c r="R41" s="13"/>
       <c r="S41" s="185" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="T41" s="14"/>
       <c r="U41" s="185" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="V41" s="18"/>
       <c r="W41" s="15">
@@ -13896,7 +13664,7 @@
         <v>4</v>
       </c>
       <c r="I45" s="72" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J45" s="15">
         <v>5</v>
@@ -13909,13 +13677,13 @@
         <v>3</v>
       </c>
       <c r="M45" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N45" s="62">
         <v>4</v>
       </c>
       <c r="O45" s="185" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P45" s="16">
         <v>2</v>
@@ -13925,11 +13693,11 @@
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="185" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="T45" s="14"/>
       <c r="U45" s="185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="V45" s="18"/>
       <c r="W45" s="15">
@@ -14109,6 +13877,15 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="B2:AD2"/>
+    <mergeCell ref="B3:AD3"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K5:K7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="L5:AC5"/>
@@ -14121,15 +13898,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="B2:AD2"/>
-    <mergeCell ref="B3:AD3"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F12 H9:H12 J9:K12 N9:N12 P9:Q12 T9:T12 V9:W12 Z9:Z12 AB9:AD12 AB14:AD15 Z14:Z15 V14:W15 T14:T15 P14:Q15 N14:N15 J14:K15 H14:H15 F14:F15 AB18:AD27 Z18:Z27 V18:W27 T18:T27 P18:Q27 N18:N27 J18:K27 H18:H27 F18:F27 F36:F39 H36:H39 J36:K39 N36:N39 P36:Q39 T36:T39 V36:W39 Z36:Z39 AB36:AD39 AB41:AD46 Z41:Z46 V41:W46 T41:T46 P41:Q46 N41:N46 J41:K46 H41:H46 F41:F46 F30:F34 H30:H34 N30:N34 P30:Q34 T30:T34 V30:W34 Z30:Z34 AB30:AD34 J30:K34">
     <cfRule type="colorScale" priority="72">
@@ -14375,9 +14143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14388,8 +14156,8 @@
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
@@ -14408,90 +14176,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="221"/>
-      <c r="AB2" s="221"/>
-      <c r="AC2" s="221"/>
-      <c r="AD2" s="221"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:30" ht="18" x14ac:dyDescent="0.3">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="221"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="221"/>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="221"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="221"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="221"/>
-      <c r="AC3" s="221"/>
-      <c r="AD3" s="221"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="244"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="244"/>
+      <c r="AD3" s="244"/>
     </row>
     <row r="4" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="233" t="s">
+      <c r="A5" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="263" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="247" t="s">
+      <c r="C5" s="225"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="264" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
+      <c r="J5" s="266"/>
+      <c r="K5" s="241" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="227" t="s">
@@ -14514,78 +14282,78 @@
       <c r="AA5" s="228"/>
       <c r="AB5" s="228"/>
       <c r="AC5" s="229"/>
-      <c r="AD5" s="222" t="s">
+      <c r="AD5" s="221" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="223"/>
-      <c r="B6" s="236" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="238" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="243" t="s">
+      <c r="A6" s="222"/>
+      <c r="B6" s="230" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="250" t="s">
+      <c r="E6" s="254" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="239" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="248" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="245" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="230" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="245" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="230" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="243" t="s">
+      <c r="J6" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="248"/>
-      <c r="L6" s="240" t="s">
+      <c r="K6" s="242"/>
+      <c r="L6" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="241"/>
-      <c r="N6" s="241"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="240" t="s">
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="235"/>
+      <c r="P6" s="235"/>
+      <c r="Q6" s="236"/>
+      <c r="R6" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="241"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="241"/>
-      <c r="V6" s="241"/>
-      <c r="W6" s="242"/>
-      <c r="X6" s="240" t="s">
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="235"/>
+      <c r="V6" s="235"/>
+      <c r="W6" s="236"/>
+      <c r="X6" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="241"/>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="241"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="242"/>
-      <c r="AD6" s="223"/>
+      <c r="Y6" s="235"/>
+      <c r="Z6" s="235"/>
+      <c r="AA6" s="235"/>
+      <c r="AB6" s="235"/>
+      <c r="AC6" s="236"/>
+      <c r="AD6" s="222"/>
     </row>
     <row r="7" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="223"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="249"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="258"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="259"/>
+      <c r="J7" s="258"/>
+      <c r="K7" s="243"/>
       <c r="L7" s="100" t="s">
         <v>13</v>
       </c>
@@ -14640,9 +14408,9 @@
       <c r="AC7" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="258"/>
+      <c r="AD7" s="260"/>
     </row>
-    <row r="8" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="79" t="s">
         <v>129</v>
       </c>
@@ -14661,8 +14429,8 @@
       <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="125" t="s">
-        <v>240</v>
+      <c r="G8" s="185" t="s">
+        <v>413</v>
       </c>
       <c r="H8" s="9">
         <v>2</v>
@@ -14698,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="80" t="s">
         <v>137</v>
       </c>
@@ -14717,14 +14485,14 @@
       <c r="F9" s="14">
         <v>5</v>
       </c>
-      <c r="G9" s="72" t="s">
-        <v>241</v>
+      <c r="G9" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H9" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="J9" s="18">
         <v>2</v>
@@ -14734,12 +14502,12 @@
       </c>
       <c r="L9" s="28">
         <f t="shared" ref="L9:L43" si="1">(IF(SUM(B9:D9)/3 &gt;= 3, 1, 0) + COUNTIF(F9:J9,"&gt;=3")) * IF(K9 &gt; 2, 1, 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="77"/>
       <c r="N9" s="62"/>
       <c r="O9" s="185" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P9" s="18">
         <v>2</v>
@@ -14749,11 +14517,11 @@
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="185" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="185" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="V9" s="18"/>
       <c r="W9" s="15">
@@ -14763,13 +14531,13 @@
         <v>9.5</v>
       </c>
       <c r="Y9" s="217" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Z9" s="14">
         <v>2</v>
       </c>
       <c r="AA9" s="185" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AB9" s="18">
         <v>2</v>
@@ -14782,7 +14550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="80" t="s">
         <v>118</v>
       </c>
@@ -14801,8 +14569,8 @@
       <c r="F10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="72" t="s">
-        <v>242</v>
+      <c r="G10" s="185" t="s">
+        <v>419</v>
       </c>
       <c r="H10" s="14">
         <v>2</v>
@@ -14838,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80" t="s">
         <v>20</v>
       </c>
@@ -14857,14 +14625,14 @@
       <c r="F11" s="14">
         <v>5</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>217</v>
+      <c r="G11" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H11" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J11" s="18">
         <v>2</v>
@@ -14876,13 +14644,13 @@
         <v>2</v>
       </c>
       <c r="M11" s="185" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="N11" s="62">
         <v>2</v>
       </c>
       <c r="O11" s="185" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P11" s="18">
         <v>2</v>
@@ -14892,11 +14660,11 @@
       </c>
       <c r="R11" s="13"/>
       <c r="S11" s="185" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="T11" s="14"/>
       <c r="U11" s="185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="V11" s="18"/>
       <c r="W11" s="15">
@@ -14913,7 +14681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="80" t="s">
         <v>127</v>
       </c>
@@ -14932,14 +14700,14 @@
       <c r="F12" s="14">
         <v>2</v>
       </c>
-      <c r="G12" s="72" t="s">
-        <v>242</v>
+      <c r="G12" s="185" t="s">
+        <v>415</v>
       </c>
       <c r="H12" s="14">
         <v>2</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J12" s="18">
         <v>2</v>
@@ -14977,7 +14745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="80" t="s">
         <v>126</v>
       </c>
@@ -14996,14 +14764,14 @@
       <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G13" s="72" t="s">
-        <v>236</v>
+      <c r="G13" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H13" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J13" s="18">
         <v>2.75</v>
@@ -15016,13 +14784,13 @@
         <v>3</v>
       </c>
       <c r="M13" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N13" s="62">
         <v>5</v>
       </c>
       <c r="O13" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P13" s="18">
         <v>5</v>
@@ -15047,7 +14815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="80" t="s">
         <v>32</v>
       </c>
@@ -15066,14 +14834,14 @@
       <c r="F14" s="14">
         <v>5</v>
       </c>
-      <c r="G14" s="72" t="s">
-        <v>236</v>
+      <c r="G14" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H14" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J14" s="18">
         <v>4</v>
@@ -15086,13 +14854,13 @@
         <v>4</v>
       </c>
       <c r="M14" s="185" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N14" s="62">
         <v>2</v>
       </c>
       <c r="O14" s="185" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P14" s="18">
         <v>2</v>
@@ -15134,16 +14902,16 @@
         <v>166</v>
       </c>
       <c r="F15" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="72" t="s">
         <v>225</v>
       </c>
       <c r="H15" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J15" s="18">
         <v>2</v>
@@ -15181,7 +14949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="80" t="s">
         <v>138</v>
       </c>
@@ -15200,9 +14968,11 @@
       <c r="F16" s="14">
         <v>5</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="185" t="s">
+        <v>414</v>
+      </c>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="73"/>
       <c r="J16" s="18"/>
@@ -15234,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="80" t="s">
         <v>18</v>
       </c>
@@ -15242,7 +15012,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D17" s="180">
         <v>2</v>
@@ -15253,14 +15023,14 @@
       <c r="F17" s="14">
         <v>5</v>
       </c>
-      <c r="G17" s="72" t="s">
-        <v>230</v>
+      <c r="G17" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H17" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
@@ -15273,13 +15043,13 @@
         <v>2</v>
       </c>
       <c r="M17" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N17" s="62">
         <v>5</v>
       </c>
       <c r="O17" s="185" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P17" s="18">
         <v>2</v>
@@ -15304,7 +15074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="80" t="s">
         <v>140</v>
       </c>
@@ -15323,8 +15093,8 @@
       <c r="F18" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="72" t="s">
-        <v>228</v>
+      <c r="G18" s="185" t="s">
+        <v>415</v>
       </c>
       <c r="H18" s="14">
         <v>2</v>
@@ -15360,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="80" t="s">
         <v>135</v>
       </c>
@@ -15379,12 +15149,14 @@
       <c r="F19" s="14">
         <v>5</v>
       </c>
-      <c r="G19" s="60"/>
+      <c r="G19" s="185" t="s">
+        <v>414</v>
+      </c>
       <c r="H19" s="14">
         <v>5</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J19" s="18">
         <v>5</v>
@@ -15420,7 +15192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
         <v>121</v>
       </c>
@@ -15439,14 +15211,14 @@
       <c r="F20" s="14">
         <v>5</v>
       </c>
-      <c r="G20" s="72" t="s">
-        <v>243</v>
+      <c r="G20" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H20" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="J20" s="18">
         <v>2</v>
@@ -15458,13 +15230,13 @@
         <v>2</v>
       </c>
       <c r="M20" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N20" s="62">
         <v>4</v>
       </c>
       <c r="O20" s="185" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P20" s="18">
         <v>4</v>
@@ -15489,7 +15261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="80" t="s">
         <v>122</v>
       </c>
@@ -15508,14 +15280,14 @@
       <c r="F21" s="14">
         <v>5</v>
       </c>
-      <c r="G21" s="72" t="s">
-        <v>225</v>
+      <c r="G21" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H21" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J21" s="18">
         <v>3</v>
@@ -15529,7 +15301,7 @@
       <c r="M21" s="34"/>
       <c r="N21" s="62"/>
       <c r="O21" s="185" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P21" s="18">
         <v>2</v>
@@ -15539,11 +15311,11 @@
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="185" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="185" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="V21" s="18"/>
       <c r="W21" s="15">
@@ -15560,7 +15332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="80" t="s">
         <v>143</v>
       </c>
@@ -15577,14 +15349,14 @@
       <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="60" t="s">
-        <v>225</v>
+      <c r="G22" s="185" t="s">
+        <v>416</v>
       </c>
       <c r="H22" s="14">
         <v>2</v>
       </c>
       <c r="I22" s="72" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -15603,11 +15375,11 @@
         <v>13</v>
       </c>
       <c r="S22" s="185" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="T22" s="14"/>
       <c r="U22" s="185" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="V22" s="18"/>
       <c r="W22" s="15">
@@ -15631,7 +15403,7 @@
       <c r="AK22" s="215"/>
       <c r="AL22" s="215"/>
     </row>
-    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="80" t="s">
         <v>125</v>
       </c>
@@ -15650,14 +15422,14 @@
       <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="72" t="s">
-        <v>244</v>
+      <c r="G23" s="185" t="s">
+        <v>417</v>
       </c>
       <c r="H23" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -15667,16 +15439,16 @@
       </c>
       <c r="L23" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N23" s="62">
         <v>5</v>
       </c>
       <c r="O23" s="185" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P23" s="18">
         <v>2</v>
@@ -15701,7 +15473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="80" t="s">
         <v>150</v>
       </c>
@@ -15720,14 +15492,14 @@
       <c r="F24" s="14">
         <v>5</v>
       </c>
-      <c r="G24" s="72" t="s">
-        <v>244</v>
+      <c r="G24" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H24" s="14">
         <v>5</v>
       </c>
       <c r="I24" s="72" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J24" s="18">
         <v>2</v>
@@ -15740,13 +15512,13 @@
         <v>2</v>
       </c>
       <c r="M24" s="185" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N24" s="62">
         <v>4</v>
       </c>
       <c r="O24" s="185" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P24" s="18">
         <v>4</v>
@@ -15771,7 +15543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="80" t="s">
         <v>131</v>
       </c>
@@ -15790,14 +15562,14 @@
       <c r="F25" s="14">
         <v>5</v>
       </c>
-      <c r="G25" s="72" t="s">
-        <v>236</v>
+      <c r="G25" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H25" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J25" s="18">
         <v>2</v>
@@ -15810,13 +15582,13 @@
         <v>2</v>
       </c>
       <c r="M25" s="185" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N25" s="62">
         <v>2</v>
       </c>
       <c r="O25" s="185" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P25" s="18">
         <v>3</v>
@@ -15841,7 +15613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="80" t="s">
         <v>136</v>
       </c>
@@ -15860,14 +15632,14 @@
       <c r="F26" s="14">
         <v>5</v>
       </c>
-      <c r="G26" s="72" t="s">
-        <v>238</v>
+      <c r="G26" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H26" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26" s="72" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J26" s="18">
         <v>5</v>
@@ -15877,16 +15649,16 @@
       </c>
       <c r="L26" s="28">
         <f>(IF(SUM(B26:D26)/3 &gt;= 3, 1, 0) + COUNTIF(F26:J26,"&gt;=3")) * IF(K26 &gt; 2, 1, 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N26" s="62">
         <v>5</v>
       </c>
       <c r="O26" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P26" s="18">
         <v>5</v>
@@ -15911,7 +15683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
         <v>123</v>
       </c>
@@ -15930,14 +15702,14 @@
       <c r="F27" s="14">
         <v>5</v>
       </c>
-      <c r="G27" s="72" t="s">
-        <v>229</v>
+      <c r="G27" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H27" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="72" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J27" s="18">
         <v>2</v>
@@ -15950,13 +15722,13 @@
         <v>3</v>
       </c>
       <c r="M27" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N27" s="62">
         <v>5</v>
       </c>
       <c r="O27" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P27" s="18">
         <v>5</v>
@@ -15981,7 +15753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="80" t="s">
         <v>124</v>
       </c>
@@ -16000,9 +15772,11 @@
       <c r="F28" s="14">
         <v>2</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="185" t="s">
+        <v>418</v>
+      </c>
       <c r="H28" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="69"/>
       <c r="J28" s="18"/>
@@ -16035,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="80" t="s">
         <v>144</v>
       </c>
@@ -16054,14 +15828,14 @@
       <c r="F29" s="14">
         <v>5</v>
       </c>
-      <c r="G29" s="72" t="s">
-        <v>241</v>
+      <c r="G29" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H29" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="J29" s="18">
         <v>2</v>
@@ -16073,13 +15847,13 @@
         <v>2</v>
       </c>
       <c r="M29" s="185" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N29" s="62">
         <v>4</v>
       </c>
       <c r="O29" s="185" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P29" s="18">
         <v>4</v>
@@ -16089,11 +15863,11 @@
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="185" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="T29" s="14"/>
       <c r="U29" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V29" s="18"/>
       <c r="W29" s="15">
@@ -16110,7 +15884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="80" t="s">
         <v>19</v>
       </c>
@@ -16129,14 +15903,14 @@
       <c r="F30" s="14">
         <v>5</v>
       </c>
-      <c r="G30" s="72" t="s">
-        <v>230</v>
+      <c r="G30" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H30" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J30" s="18">
         <v>3</v>
@@ -16149,13 +15923,13 @@
         <v>4</v>
       </c>
       <c r="M30" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N30" s="62">
         <v>5</v>
       </c>
       <c r="O30" s="185" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P30" s="18">
         <v>2</v>
@@ -16180,7 +15954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="80" t="s">
         <v>130</v>
       </c>
@@ -16199,7 +15973,9 @@
       <c r="F31" s="14">
         <v>2</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="185" t="s">
+        <v>416</v>
+      </c>
       <c r="H31" s="14">
         <v>2</v>
       </c>
@@ -16234,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80" t="s">
         <v>141</v>
       </c>
@@ -16253,14 +16029,14 @@
       <c r="F32" s="14">
         <v>2</v>
       </c>
-      <c r="G32" s="60" t="s">
-        <v>231</v>
+      <c r="G32" s="185" t="s">
+        <v>419</v>
       </c>
       <c r="H32" s="14">
         <v>2</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J32" s="18">
         <v>2</v>
@@ -16298,7 +16074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="80" t="s">
         <v>21</v>
       </c>
@@ -16317,14 +16093,14 @@
       <c r="F33" s="14">
         <v>2</v>
       </c>
-      <c r="G33" s="56" t="s">
-        <v>231</v>
+      <c r="G33" s="185" t="s">
+        <v>416</v>
       </c>
       <c r="H33" s="14">
         <v>2</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J33" s="18">
         <v>2</v>
@@ -16362,7 +16138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="80" t="s">
         <v>156</v>
       </c>
@@ -16381,14 +16157,14 @@
       <c r="F34" s="14">
         <v>4</v>
       </c>
-      <c r="G34" s="72" t="s">
-        <v>245</v>
+      <c r="G34" s="185" t="s">
+        <v>420</v>
       </c>
       <c r="H34" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" s="72" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J34" s="18">
         <v>2</v>
@@ -16398,16 +16174,16 @@
       </c>
       <c r="L34" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" s="185" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N34" s="62">
         <v>2</v>
       </c>
       <c r="O34" s="185" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P34" s="18">
         <v>2</v>
@@ -16417,11 +16193,11 @@
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="185" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="T34" s="14"/>
       <c r="U34" s="185" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="15">
@@ -16438,7 +16214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="80" t="s">
         <v>134</v>
       </c>
@@ -16457,14 +16233,14 @@
       <c r="F35" s="14">
         <v>2</v>
       </c>
-      <c r="G35" s="72" t="s">
-        <v>225</v>
+      <c r="G35" s="185" t="s">
+        <v>421</v>
       </c>
       <c r="H35" s="14">
         <v>2</v>
       </c>
       <c r="I35" s="72" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J35" s="18">
         <v>2</v>
@@ -16501,7 +16277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="80" t="s">
         <v>119</v>
       </c>
@@ -16520,9 +16296,11 @@
       <c r="F36" s="14">
         <v>2</v>
       </c>
-      <c r="G36" s="60"/>
+      <c r="G36" s="185" t="s">
+        <v>422</v>
+      </c>
       <c r="H36" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="73"/>
       <c r="J36" s="18"/>
@@ -16555,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="80" t="s">
         <v>120</v>
       </c>
@@ -16574,14 +16352,14 @@
       <c r="F37" s="14">
         <v>5</v>
       </c>
-      <c r="G37" s="72" t="s">
-        <v>246</v>
+      <c r="G37" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H37" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="J37" s="18">
         <v>3</v>
@@ -16591,16 +16369,16 @@
       </c>
       <c r="L37" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N37" s="62">
         <v>5</v>
       </c>
       <c r="O37" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P37" s="18">
         <v>5</v>
@@ -16625,7 +16403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="82" t="s">
         <v>115</v>
       </c>
@@ -16644,14 +16422,14 @@
       <c r="F38" s="14">
         <v>5</v>
       </c>
-      <c r="G38" s="72" t="s">
-        <v>230</v>
+      <c r="G38" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H38" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="72" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J38" s="18">
         <v>2</v>
@@ -16664,13 +16442,13 @@
         <v>3</v>
       </c>
       <c r="M38" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N38" s="62">
         <v>5</v>
       </c>
       <c r="O38" s="185" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P38" s="18">
         <v>5</v>
@@ -16680,11 +16458,11 @@
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="185" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="T38" s="14"/>
       <c r="U38" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V38" s="18"/>
       <c r="W38" s="15">
@@ -16701,7 +16479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="80" t="s">
         <v>139</v>
       </c>
@@ -16720,14 +16498,14 @@
       <c r="F39" s="14">
         <v>5</v>
       </c>
-      <c r="G39" s="72" t="s">
-        <v>247</v>
+      <c r="G39" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H39" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J39" s="18">
         <v>2</v>
@@ -16737,16 +16515,16 @@
       </c>
       <c r="L39" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" s="185" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N39" s="62">
         <v>2</v>
       </c>
       <c r="O39" s="185" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P39" s="18">
         <v>2</v>
@@ -16756,11 +16534,11 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="185" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="T39" s="14"/>
       <c r="U39" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V39" s="18"/>
       <c r="W39" s="15">
@@ -16770,13 +16548,13 @@
         <v>10.5</v>
       </c>
       <c r="Y39" s="218" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Z39" s="14">
         <v>4</v>
       </c>
       <c r="AA39" s="185" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AB39" s="18">
         <v>2.5</v>
@@ -16789,7 +16567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="80" t="s">
         <v>132</v>
       </c>
@@ -16808,14 +16586,14 @@
       <c r="F40" s="14">
         <v>2</v>
       </c>
-      <c r="G40" s="72" t="s">
-        <v>228</v>
+      <c r="G40" s="185" t="s">
+        <v>423</v>
       </c>
       <c r="H40" s="14">
         <v>2</v>
       </c>
       <c r="I40" s="72" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J40" s="18">
         <v>2</v>
@@ -16827,13 +16605,13 @@
         <v>2</v>
       </c>
       <c r="M40" s="185" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="N40" s="62">
         <v>5</v>
       </c>
       <c r="O40" s="185" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P40" s="18">
         <v>4</v>
@@ -16858,7 +16636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="80" t="s">
         <v>133</v>
       </c>
@@ -16877,14 +16655,14 @@
       <c r="F41" s="14">
         <v>5</v>
       </c>
-      <c r="G41" s="72" t="s">
-        <v>240</v>
+      <c r="G41" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H41" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I41" s="72" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J41" s="18">
         <v>2</v>
@@ -16894,14 +16672,14 @@
       </c>
       <c r="L41" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" s="34"/>
       <c r="N41" s="62">
         <v>5</v>
       </c>
       <c r="O41" s="185" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P41" s="18">
         <v>2</v>
@@ -16926,7 +16704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="80" t="s">
         <v>128</v>
       </c>
@@ -16945,14 +16723,14 @@
       <c r="F42" s="14">
         <v>2</v>
       </c>
-      <c r="G42" s="72" t="s">
-        <v>228</v>
+      <c r="G42" s="185" t="s">
+        <v>419</v>
       </c>
       <c r="H42" s="14">
         <v>2</v>
       </c>
       <c r="I42" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J42" s="18">
         <v>2</v>
@@ -17003,7 +16781,7 @@
         <v>170</v>
       </c>
       <c r="F43" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="20">
@@ -17060,7 +16838,7 @@
       <c r="G44" s="112"/>
       <c r="H44" s="112">
         <f>COUNTIF(H8:H43, "&gt;2.5")</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I44" s="112"/>
       <c r="J44" s="112">
@@ -17073,7 +16851,7 @@
       </c>
       <c r="L44" s="4">
         <f>COUNTIF(L8:L43, "&gt;1")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M44" s="111"/>
       <c r="N44" s="112">
@@ -17131,7 +16909,7 @@
       </c>
     </row>
     <row r="45" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="79" t="s">
         <v>148</v>
       </c>
@@ -17150,14 +16928,14 @@
       <c r="F46" s="9">
         <v>5</v>
       </c>
-      <c r="G46" s="125" t="s">
-        <v>225</v>
+      <c r="G46" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H46" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I46" s="125" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J46" s="10">
         <v>2</v>
@@ -17187,7 +16965,7 @@
         <v>15</v>
       </c>
       <c r="Y46" s="219" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="Z46" s="9">
         <v>2</v>
@@ -17217,7 +16995,7 @@
       <c r="AK46" s="127"/>
       <c r="AL46" s="127"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="86" t="s">
         <v>157</v>
       </c>
@@ -17234,11 +17012,11 @@
       <c r="F47" s="58">
         <v>5</v>
       </c>
-      <c r="G47" s="72" t="s">
-        <v>206</v>
+      <c r="G47" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H47" s="58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I47" s="73"/>
       <c r="J47" s="59"/>
@@ -17270,11 +17048,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>414</v>
-      </c>
-      <c r="F48" s="14">
+        <v>406</v>
+      </c>
+      <c r="F48" s="58">
+        <v>2</v>
+      </c>
+      <c r="G48" s="185" t="s">
+        <v>424</v>
+      </c>
+      <c r="H48" s="58">
         <v>2</v>
       </c>
     </row>
@@ -17297,14 +17081,14 @@
       <c r="F49" s="14">
         <v>5</v>
       </c>
-      <c r="G49" s="72" t="s">
-        <v>227</v>
+      <c r="G49" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H49" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I49" s="72" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J49" s="15">
         <v>2</v>
@@ -17324,11 +17108,11 @@
         <v>13.5</v>
       </c>
       <c r="S49" s="185" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="T49" s="14"/>
       <c r="U49" s="185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="V49" s="18"/>
       <c r="W49" s="15">
@@ -17338,13 +17122,13 @@
         <v>10.5</v>
       </c>
       <c r="Y49" s="78" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Z49" s="14">
         <v>5</v>
       </c>
       <c r="AA49" s="185" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AB49" s="18">
         <v>4</v>
@@ -17366,7 +17150,7 @@
       <c r="AK49" s="127"/>
       <c r="AL49" s="127"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="80" t="s">
         <v>145</v>
       </c>
@@ -17385,14 +17169,14 @@
       <c r="F50" s="14">
         <v>2</v>
       </c>
-      <c r="G50" s="72" t="s">
-        <v>228</v>
+      <c r="G50" s="185" t="s">
+        <v>425</v>
       </c>
       <c r="H50" s="14">
         <v>2</v>
       </c>
       <c r="I50" s="72" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J50" s="15">
         <v>2</v>
@@ -17413,11 +17197,11 @@
         <v>17</v>
       </c>
       <c r="S50" s="185" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="T50" s="14"/>
       <c r="U50" s="185" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="V50" s="18"/>
       <c r="W50" s="15">
@@ -17427,13 +17211,13 @@
         <v>17</v>
       </c>
       <c r="Y50" s="78" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Z50" s="14">
         <v>3.75</v>
       </c>
       <c r="AA50" s="185" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="AB50" s="18">
         <v>2.25</v>
@@ -17457,7 +17241,7 @@
       <c r="AK50" s="127"/>
       <c r="AL50" s="127"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="80" t="s">
         <v>17</v>
       </c>
@@ -17476,14 +17260,14 @@
       <c r="F51" s="14">
         <v>5</v>
       </c>
-      <c r="G51" s="72" t="s">
-        <v>227</v>
+      <c r="G51" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H51" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="72" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J51" s="15">
         <v>2</v>
@@ -17496,13 +17280,13 @@
         <v>3</v>
       </c>
       <c r="M51" s="185" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N51" s="62">
         <v>4</v>
       </c>
       <c r="O51" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P51" s="18">
         <v>3</v>
@@ -17557,14 +17341,14 @@
       <c r="F52" s="14">
         <v>2</v>
       </c>
-      <c r="G52" s="72" t="s">
-        <v>208</v>
+      <c r="G52" s="185" t="s">
+        <v>413</v>
       </c>
       <c r="H52" s="14">
         <v>2</v>
       </c>
       <c r="I52" s="72" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J52" s="18">
         <v>2</v>
@@ -17578,7 +17362,7 @@
       <c r="M52" s="34"/>
       <c r="N52" s="62"/>
       <c r="O52" s="185" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P52" s="18">
         <v>2</v>
@@ -17588,11 +17372,11 @@
       </c>
       <c r="R52" s="179"/>
       <c r="S52" s="185" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="T52" s="14"/>
       <c r="U52" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V52" s="18"/>
       <c r="W52" s="15">
@@ -17602,13 +17386,13 @@
         <v>9</v>
       </c>
       <c r="Y52" s="78" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Z52" s="14">
         <v>5</v>
       </c>
       <c r="AA52" s="185" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AB52" s="18">
         <v>4</v>
@@ -17623,13 +17407,16 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F53" s="14">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="80" t="s">
         <v>142</v>
       </c>
@@ -17646,14 +17433,14 @@
       <c r="F54" s="14">
         <v>2</v>
       </c>
-      <c r="G54" s="72" t="s">
-        <v>233</v>
+      <c r="G54" s="185" t="s">
+        <v>419</v>
       </c>
       <c r="H54" s="14">
         <v>2</v>
       </c>
       <c r="I54" s="72" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J54" s="15">
         <v>2</v>
@@ -17700,7 +17487,7 @@
       <c r="AK54" s="127"/>
       <c r="AL54" s="127"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="80" t="s">
         <v>151</v>
       </c>
@@ -17719,14 +17506,14 @@
       <c r="F55" s="14">
         <v>2</v>
       </c>
-      <c r="G55" s="72" t="s">
-        <v>222</v>
+      <c r="G55" s="185" t="s">
+        <v>416</v>
       </c>
       <c r="H55" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" s="72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J55" s="18">
         <v>2</v>
@@ -17736,16 +17523,16 @@
       </c>
       <c r="L55" s="28">
         <f t="shared" ref="L55" si="7">(IF(SUM(B55:D55)/3 &gt;= 3, 1, 0) + COUNTIF(F55:J55,"&gt;=3")) * IF(K55 &gt; 2, 1, 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="185" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N55" s="62">
         <v>2</v>
       </c>
       <c r="O55" s="185" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P55" s="18">
         <v>4</v>
@@ -17755,11 +17542,11 @@
       </c>
       <c r="R55" s="179"/>
       <c r="S55" s="185" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="T55" s="14"/>
       <c r="U55" s="185" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="V55" s="18"/>
       <c r="W55" s="15">
@@ -17776,7 +17563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="80" t="s">
         <v>155</v>
       </c>
@@ -17795,14 +17582,14 @@
       <c r="F56" s="14">
         <v>2</v>
       </c>
-      <c r="G56" s="72" t="s">
-        <v>237</v>
+      <c r="G56" s="185" t="s">
+        <v>426</v>
       </c>
       <c r="H56" s="14">
         <v>2</v>
       </c>
       <c r="I56" s="72" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J56" s="15">
         <v>2</v>
@@ -17851,7 +17638,7 @@
       <c r="AK56" s="127"/>
       <c r="AL56" s="127"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="80" t="s">
         <v>146</v>
       </c>
@@ -17870,14 +17657,14 @@
       <c r="F57" s="14">
         <v>2</v>
       </c>
-      <c r="G57" s="72" t="s">
-        <v>208</v>
+      <c r="G57" s="185" t="s">
+        <v>427</v>
       </c>
       <c r="H57" s="14">
         <v>2</v>
       </c>
       <c r="I57" s="72" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J57" s="18">
         <v>2</v>
@@ -17919,13 +17706,13 @@
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F58" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="80" t="s">
         <v>37</v>
       </c>
@@ -17944,14 +17731,14 @@
       <c r="F59" s="62">
         <v>2</v>
       </c>
-      <c r="G59" s="72" t="s">
-        <v>238</v>
+      <c r="G59" s="185" t="s">
+        <v>428</v>
       </c>
       <c r="H59" s="14">
         <v>2</v>
       </c>
       <c r="I59" s="72" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J59" s="15">
         <v>2</v>
@@ -17965,7 +17752,7 @@
       <c r="M59" s="34"/>
       <c r="N59" s="62"/>
       <c r="O59" s="185" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P59" s="180">
         <v>2</v>
@@ -17975,11 +17762,11 @@
       </c>
       <c r="R59" s="179"/>
       <c r="S59" s="185" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="T59" s="14"/>
       <c r="U59" s="185" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="V59" s="18"/>
       <c r="W59" s="15">
@@ -18007,7 +17794,7 @@
       <c r="AK59" s="127"/>
       <c r="AL59" s="127"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="80" t="s">
         <v>152</v>
       </c>
@@ -18026,14 +17813,14 @@
       <c r="F60" s="14">
         <v>2</v>
       </c>
-      <c r="G60" s="72" t="s">
-        <v>208</v>
+      <c r="G60" s="185" t="s">
+        <v>416</v>
       </c>
       <c r="H60" s="14">
         <v>2</v>
       </c>
       <c r="I60" s="72" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J60" s="18">
         <v>2</v>
@@ -18071,15 +17858,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F61" s="58">
         <v>5</v>
       </c>
+      <c r="G61" s="185" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" s="58">
+        <v>5</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="80" t="s">
         <v>153</v>
       </c>
@@ -18098,14 +17891,14 @@
       <c r="F62" s="14">
         <v>5</v>
       </c>
-      <c r="G62" s="72" t="s">
-        <v>214</v>
+      <c r="G62" s="185" t="s">
+        <v>414</v>
       </c>
       <c r="H62" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I62" s="72" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J62" s="18">
         <v>4.25</v>
@@ -18118,13 +17911,13 @@
         <v>4</v>
       </c>
       <c r="M62" s="185" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N62" s="62">
         <v>4</v>
       </c>
       <c r="O62" s="185" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P62" s="18">
         <v>3</v>
@@ -18151,7 +17944,7 @@
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="80" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B63" s="123"/>
       <c r="C63" s="17">
@@ -18159,15 +17952,17 @@
       </c>
       <c r="D63" s="180"/>
       <c r="E63" s="33" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F63" s="14">
-        <v>2</v>
-      </c>
-      <c r="G63" s="60"/>
-      <c r="H63" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="185"/>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
       <c r="I63" s="72" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J63" s="18">
         <v>2</v>
@@ -18205,7 +18000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="80" t="s">
         <v>147</v>
       </c>
@@ -18224,14 +18019,14 @@
       <c r="F64" s="14">
         <v>2</v>
       </c>
-      <c r="G64" s="72" t="s">
-        <v>211</v>
+      <c r="G64" s="185" t="s">
+        <v>429</v>
       </c>
       <c r="H64" s="14">
         <v>2</v>
       </c>
       <c r="I64" s="72" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J64" s="18">
         <v>2</v>
@@ -18245,7 +18040,7 @@
       <c r="M64" s="34"/>
       <c r="N64" s="62"/>
       <c r="O64" s="185" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P64" s="18">
         <v>2</v>
@@ -18257,11 +18052,11 @@
         <v>8.5</v>
       </c>
       <c r="S64" s="185" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="T64" s="14"/>
       <c r="U64" s="185" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="V64" s="18"/>
       <c r="W64" s="15">
@@ -18271,13 +18066,13 @@
         <v>11</v>
       </c>
       <c r="Y64" s="78" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Z64" s="14">
         <v>2.75</v>
       </c>
       <c r="AA64" s="185" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AB64" s="18">
         <v>2.5</v>
@@ -18290,9 +18085,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>418</v>
+        <v>410</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18300,11 +18101,6 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:K7"/>
     <mergeCell ref="B2:AD2"/>
     <mergeCell ref="B3:AD3"/>
     <mergeCell ref="AD5:AD7"/>
@@ -18320,9 +18116,14 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="E5:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:Q16 F8:F16 H8:H16 J8:K8 N8:N16 T8:T16 V8:W16 Z8:Z16 AB8:AD16 AB18:AD21 Z18:Z21 V18:W21 T18:T21 N18:N21 J18:J21 H18:H21 F18:F21 P18:Q21 P25:Q27 F25:F27 H25:H27 J25:J27 N25:N27 T25:T27 V25:W27 Z25:Z27 AB25:AD27 AB29:AD32 Z29:Z32 V29:W32 T29:T32 N29:N32 J29:J32 H29:H32 F29:F32 P29:Q32 P35:Q43 F35:F43 H35:H43 J35:J43 N35:N43 T35:T43 V35:W43 Z35:Z43 AB35:AD43 J9:J16 K9:K21 K23:K43 P23:Q23 F23 H23 J23 N23 T23 V23:W23 Z23 AB23:AD23">
-    <cfRule type="colorScale" priority="163">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18334,7 +18135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:D16 B18:D21 B25:D25 B26:C43 D26:D42 B23:D23">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18346,6 +18147,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:Q17 F17 H17 J17 N17 T17 V17:W17 Z17 AB17:AD17">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:D17">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB24:AD24 Z24 V24:W24 T24 N24 J24 H24 F24 P24:Q24">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18357,7 +18182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:D17">
+  <conditionalFormatting sqref="B24:D24">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18369,7 +18194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB24:AD24 Z24 V24:W24 T24 N24 J24 H24 F24 P24:Q24">
+  <conditionalFormatting sqref="P28:Q28 F28 H28 J28 N28 T28 V28:W28 Z28 AB28:AD28">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18381,19 +18206,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D24">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="L8:L21 L23:L43">
+    <cfRule type="iconSet" priority="596">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28:Q28 F28 H28 J28 N28 T28 V28:W28 Z28 AB28:AD28">
+  <conditionalFormatting sqref="AB33:AD33 Z33 V33:W33 T33 N33 J33 H33 F33 P33:Q33">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18405,16 +18227,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L21 L23:L43">
-    <cfRule type="iconSet" priority="593">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB33:AD33 Z33 V33:W33 T33 N33 J33 H33 F33 P33:Q33">
+  <conditionalFormatting sqref="P34:Q34 F34 H34 J34 N34 T34 V34:W34 Z34 AB34:AD34">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18426,8 +18239,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34:Q34 F34 H34 J34 N34 T34 V34:W34 Z34 AB34:AD34">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="AI22:AJ22">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22:AD22 Z22 V22:W22 T22 N22 J22:K22 H22 F22 P22:Q22">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18438,7 +18272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AJ22">
+  <conditionalFormatting sqref="B22:D22">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18450,29 +18284,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AD22 Z22 V22:W22 T22 N22 J22:K22 H22 F22 P22:Q22">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:D22">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="AI46:AJ46">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18483,7 +18296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI46:AJ46">
+  <conditionalFormatting sqref="B46:D46">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18495,20 +18308,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:D46">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AD46 Z46 V46:W46 T46 N46 J46:K46 H46 F46 P46:Q46">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18520,7 +18321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="iconSet" priority="69">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18528,7 +18329,31 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47 F47 J47 P47:Q47 T47 V47:W47 Z47 AB47:AD47 N47">
+  <conditionalFormatting sqref="F47 H47 J47 P47:Q47 T47 V47:W47 Z47 AB47:AD47 N47">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:D47">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18540,7 +18365,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:D47">
+  <conditionalFormatting sqref="L47">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI49:AJ49">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18552,7 +18386,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="L49">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB49:AD49 Z49 V49:W49 T49 N49 J49:K49 H49 F49 P49:Q49">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18564,16 +18407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI49:AJ49">
+  <conditionalFormatting sqref="B49:D49">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18585,8 +18419,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="iconSet" priority="61">
+  <conditionalFormatting sqref="AI50:AJ50">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18594,8 +18440,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB49:AD49 Z49 V49:W49 T49 N49 J49:K49 H49 F49 P49:Q49">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="P50:Q50 F50 H50 J50:K50 N50 T50 V50:W50 Z50 AB50:AD50">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18606,19 +18452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:D49">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI50:AJ50">
+  <conditionalFormatting sqref="B50:D50">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18630,8 +18464,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="iconSet" priority="57">
+  <conditionalFormatting sqref="AI51:AJ51">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18639,8 +18485,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50 F50 H50 J50:K50 N50 T50 V50:W50 Z50 AB50:AD50">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="AB51:AD51 Z51 V51:W51 T51 N51 J51:K51 H51 F51 P51:Q51">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18651,19 +18497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50:D50">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI51:AJ51">
+  <conditionalFormatting sqref="B51:D51">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18675,16 +18509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB51:AD51 Z51 V51:W51 T51 N51 J51:K51 H51 F51 P51:Q51">
+  <conditionalFormatting sqref="K52">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18696,32 +18521,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:D51">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="53">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18730,7 +18531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB52:AD52 Z52 V52:W52 T52 N52 J52 H52 F52 P52:Q52">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18742,7 +18543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:C52">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18754,7 +18555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18766,6 +18567,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI54:AJ54">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:D54">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18777,17 +18611,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18799,7 +18624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:D54">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18810,7 +18635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB54:AD54 Z54 V54:W54 T54 N54 J54:K54 H54 F54 P54:Q54">
+  <conditionalFormatting sqref="K55">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18822,32 +18647,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:D54">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -18856,7 +18657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55:Q55 F55 H55 J55 N55 T55 V55:W55 Z55 AB55:AD55">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -18868,7 +18669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:C55">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18880,7 +18681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -18892,6 +18693,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI56:AJ56">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56:Q56 F56 H56 J56:K56 N56 T56 V56:W56 Z56 AB56:AD56">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:D56">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18903,16 +18737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P56:Q56 F56 H56 J56:K56 N56 T56 V56:W56 Z56 AB56:AD56">
+  <conditionalFormatting sqref="F57 H57 N57 P57:Q57 T57 V57:W57 Z57 AB57:AD57 J57:K57">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18924,7 +18749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:D56">
+  <conditionalFormatting sqref="B57:C57">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18936,7 +18761,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57 F57 N57 P57:Q57 T57 V57:W57 Z57 AB57:AD57 J57:K57">
+  <conditionalFormatting sqref="L57">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB59:AD59 Z59 V59:W59 T59 P59:Q59 N59 J59:K59 H59 F59">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -18948,7 +18794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:C57">
+  <conditionalFormatting sqref="B59:D59 AF59:AL59">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -18960,53 +18806,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB59:AD59 Z59 V59:W59 T59 P59:Q59 N59 J59:K59 H59 F59">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:D59 AF59:AL59">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19015,7 +18816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -19027,7 +18828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L60">
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19036,7 +18837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60:Q60 F60 H60 J60 N60 T60 V60:W60 Z60 AB60:AD60">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -19048,7 +18849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:C60">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -19060,7 +18861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="3.5"/>
@@ -19072,7 +18873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -19084,7 +18885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -19093,6 +18894,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62:Q62 F62 H62 J62 N62 T62 V62:W62 Z62 AB62:AD62">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:C62">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V63:W63 Z63 T63 P63:Q63 J63 H63 F63 AB63:AD63 N63">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19104,7 +18941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62:C62">
+  <conditionalFormatting sqref="B63:D63">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -19116,19 +18953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V63:W63 Z63 T63 P63:Q63 J63 H63 F63 AB63:AD63 N63">
+  <conditionalFormatting sqref="K63">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19140,11 +18965,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:D63">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="L63">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -19152,7 +18986,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
+  <conditionalFormatting sqref="L64">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB64:AD64 Z64 V64:W64 T64 N64 J64 H64 F64 P64:Q64">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19164,20 +19007,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="B64:C64">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
         <cfvo type="num" val="5"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
@@ -19185,16 +19019,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L64">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="3Symbols" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB64:AD64 Z64 V64:W64 T64 N64 J64 H64 F64 P64:Q64">
+  <conditionalFormatting sqref="F61">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19206,32 +19043,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:C64">
+  <conditionalFormatting sqref="F58">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="3.5"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="3"/>
@@ -19242,7 +19055,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19254,7 +19079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F48">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -19266,7 +19091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="H61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="2"/>
